--- a/config_hlw/shoping_config_vivo.xlsx
+++ b/config_hlw/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2506">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9723,15 +9723,9 @@
     <t>赠1万金币</t>
   </si>
   <si>
-    <t>100钻=1万鲸币</t>
-  </si>
-  <si>
     <t>￥10</t>
   </si>
   <si>
-    <t>1万鲸币</t>
-  </si>
-  <si>
     <t>480,</t>
   </si>
   <si>
@@ -9753,27 +9747,6 @@
     <t>80000,</t>
   </si>
   <si>
-    <t>6万鲸币</t>
-  </si>
-  <si>
-    <t>15万鲸币</t>
-  </si>
-  <si>
-    <t>30万鲸币</t>
-  </si>
-  <si>
-    <t>50万鲸币</t>
-  </si>
-  <si>
-    <t>98万鲸币</t>
-  </si>
-  <si>
-    <t>498万鲸币</t>
-  </si>
-  <si>
-    <t>1000万鲸币</t>
-  </si>
-  <si>
     <t>79840,</t>
   </si>
   <si>
@@ -9819,63 +9792,12 @@
     <t>￥198</t>
   </si>
   <si>
-    <t>4.8万鲸币</t>
-  </si>
-  <si>
-    <t>12万鲸币</t>
-  </si>
-  <si>
-    <t>24万鲸币</t>
-  </si>
-  <si>
-    <t>40万鲸币</t>
-  </si>
-  <si>
-    <t>78.4万鲸币</t>
-  </si>
-  <si>
-    <t>398.4万鲸币</t>
-  </si>
-  <si>
-    <t>1.2万鲸币</t>
-  </si>
-  <si>
-    <t>20万鲸币</t>
-  </si>
-  <si>
-    <t>4万鲸币</t>
-  </si>
-  <si>
-    <t>1200万鲸币</t>
-  </si>
-  <si>
-    <t>798.4万鲸币</t>
-  </si>
-  <si>
-    <t>1998.4万鲸币</t>
-  </si>
-  <si>
-    <t>6.7万鲸币</t>
-  </si>
-  <si>
-    <t>132万鲸币</t>
-  </si>
-  <si>
-    <t>204万鲸币</t>
-  </si>
-  <si>
     <t>￥298</t>
   </si>
   <si>
-    <t>6600鲸币</t>
-  </si>
-  <si>
     <t>￥1</t>
   </si>
   <si>
-    <t>10万鲸币</t>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9951,6 +9873,81 @@
   </si>
   <si>
     <t>3dby_icon_p6</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>15万金币</t>
+  </si>
+  <si>
+    <t>30万金币</t>
+  </si>
+  <si>
+    <t>50万金币</t>
+  </si>
+  <si>
+    <t>98万金币</t>
+  </si>
+  <si>
+    <t>498万金币</t>
+  </si>
+  <si>
+    <t>1000万金币</t>
+  </si>
+  <si>
+    <t>4.8万金币</t>
+  </si>
+  <si>
+    <t>100钻=1万金币</t>
+  </si>
+  <si>
+    <t>12万金币</t>
+  </si>
+  <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>40万金币</t>
+  </si>
+  <si>
+    <t>78.4万金币</t>
+  </si>
+  <si>
+    <t>398.4万金币</t>
+  </si>
+  <si>
+    <t>1.2万金币</t>
+  </si>
+  <si>
+    <t>20万金币</t>
+  </si>
+  <si>
+    <t>4万金币</t>
+  </si>
+  <si>
+    <t>1200万金币</t>
+  </si>
+  <si>
+    <t>798.4万金币</t>
+  </si>
+  <si>
+    <t>1998.4万金币</t>
+  </si>
+  <si>
+    <t>1万金币</t>
+  </si>
+  <si>
+    <t>6.7万金币</t>
+  </si>
+  <si>
+    <t>132万金币</t>
+  </si>
+  <si>
+    <t>204万金币</t>
+  </si>
+  <si>
+    <t>6600金币</t>
   </si>
 </sst>
 </file>
@@ -10629,8 +10626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10748,16 +10745,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>2486</v>
+        <v>2460</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>2487</v>
+        <v>2461</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>2488</v>
+        <v>2462</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>2489</v>
+        <v>2463</v>
       </c>
       <c r="H4" s="20">
         <v>0</v>
@@ -10973,7 +10970,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>44</v>
@@ -11003,13 +11000,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>2455</v>
+        <v>2446</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>2455</v>
+        <v>2446</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>47</v>
@@ -11053,7 +11050,7 @@
         <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>44</v>
@@ -11083,13 +11080,13 @@
         <v>2</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>50</v>
@@ -11134,7 +11131,7 @@
         <v>43</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>44</v>
@@ -11164,13 +11161,13 @@
         <v>3</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="X4" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y4" s="19" t="s">
         <v>52</v>
@@ -11218,7 +11215,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>44</v>
@@ -11248,13 +11245,13 @@
         <v>4</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y5" s="19" t="s">
         <v>54</v>
@@ -11302,7 +11299,7 @@
         <v>43</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>44</v>
@@ -11332,13 +11329,13 @@
         <v>5</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>2460</v>
+        <v>2451</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>2460</v>
+        <v>2451</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y6" s="19" t="s">
         <v>56</v>
@@ -11386,7 +11383,7 @@
         <v>43</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>44</v>
@@ -11416,13 +11413,13 @@
         <v>7</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>2461</v>
+        <v>2452</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>2461</v>
+        <v>2452</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y7" s="19" t="s">
         <v>58</v>
@@ -11467,7 +11464,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>44</v>
@@ -11497,13 +11494,13 @@
         <v>8</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>2462</v>
+        <v>2453</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>2462</v>
+        <v>2453</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>60</v>
@@ -11551,7 +11548,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>2452</v>
+        <v>2443</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>44</v>
@@ -11581,13 +11578,13 @@
         <v>9</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>62</v>
@@ -11635,7 +11632,7 @@
         <v>43</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>2453</v>
+        <v>2444</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>44</v>
@@ -11665,13 +11662,13 @@
         <v>10</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>2464</v>
+        <v>2455</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>2464</v>
+        <v>2455</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="Y10" s="19" t="s">
         <v>64</v>
@@ -12118,7 +12115,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>2454</v>
+        <v>2445</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>44</v>
@@ -12148,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="V16" s="19">
         <v>66</v>
@@ -12220,10 +12217,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>2445</v>
+        <v>2481</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>2445</v>
+        <v>2481</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>46</v>
@@ -12292,10 +12289,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>2446</v>
+        <v>2482</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>2446</v>
+        <v>2482</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>46</v>
@@ -12364,10 +12361,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>2447</v>
+        <v>2483</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>2447</v>
+        <v>2483</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>46</v>
@@ -12436,10 +12433,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>2448</v>
+        <v>2484</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>2448</v>
+        <v>2484</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>46</v>
@@ -12508,10 +12505,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>2449</v>
+        <v>2485</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>2449</v>
+        <v>2485</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>46</v>
@@ -12580,10 +12577,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>2450</v>
+        <v>2486</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>2450</v>
+        <v>2486</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>46</v>
@@ -12652,10 +12649,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>2451</v>
+        <v>2487</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>2451</v>
+        <v>2487</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>46</v>
@@ -12745,7 +12742,7 @@
         <v>46</v>
       </c>
       <c r="Y24" s="32" t="s">
-        <v>2466</v>
+        <v>2457</v>
       </c>
       <c r="Z24" s="19" t="s">
         <v>63</v>
@@ -75114,10 +75111,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>2467</v>
+        <v>2488</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>47</v>
@@ -75181,10 +75178,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>2468</v>
+        <v>2490</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>50</v>
@@ -75248,10 +75245,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>52</v>
@@ -75318,10 +75315,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>2470</v>
+        <v>2492</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>54</v>
@@ -75388,10 +75385,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>2471</v>
+        <v>2493</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T6" s="28" t="s">
         <v>56</v>
@@ -75456,10 +75453,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>2472</v>
+        <v>2494</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>58</v>
@@ -75520,10 +75517,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>2473</v>
+        <v>2495</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>47</v>
@@ -75584,10 +75581,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>2474</v>
+        <v>2496</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T9" s="4">
         <v>50</v>
@@ -75651,10 +75648,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>2475</v>
+        <v>2497</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
@@ -75718,13 +75715,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>2468</v>
+        <v>2490</v>
       </c>
       <c r="S11" s="4" t="s">
+        <v>2489</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>2435</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>2436</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>501</v>
@@ -75785,10 +75782,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>2476</v>
+        <v>2498</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>60</v>
@@ -75855,10 +75852,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>2477</v>
+        <v>2499</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T13" s="19" t="s">
         <v>62</v>
@@ -75923,10 +75920,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>2478</v>
+        <v>2500</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T14" s="19" t="s">
         <v>64</v>
@@ -75988,7 +75985,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>2437</v>
+        <v>2501</v>
       </c>
       <c r="T15" s="19">
         <v>1</v>
@@ -76053,10 +76050,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>2475</v>
+        <v>2497</v>
       </c>
       <c r="S16" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>47</v>
@@ -76115,10 +76112,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>2474</v>
+        <v>2496</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T17" s="19" t="s">
         <v>52</v>
@@ -76177,10 +76174,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>2479</v>
+        <v>2502</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T18" s="19" t="s">
         <v>56</v>
@@ -76239,13 +76236,13 @@
         <v>6</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>2480</v>
+        <v>2503</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>2466</v>
+        <v>2457</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>502</v>
@@ -76301,13 +76298,13 @@
         <v>7</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>2481</v>
+        <v>2504</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>2482</v>
+        <v>2458</v>
       </c>
       <c r="U20" s="19" t="s">
         <v>503</v>
@@ -76363,13 +76360,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>2483</v>
+        <v>2505</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>2484</v>
+        <v>2459</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>1653</v>
@@ -76425,7 +76422,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>2448</v>
+        <v>2484</v>
       </c>
       <c r="T22" s="19">
         <v>50</v>
@@ -76484,7 +76481,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>2485</v>
+        <v>2170</v>
       </c>
       <c r="T23" s="19">
         <v>10</v>
@@ -76546,7 +76543,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>2437</v>
+        <v>2501</v>
       </c>
       <c r="T24" s="19">
         <v>1</v>
@@ -76614,13 +76611,13 @@
         <v>8</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>2480</v>
+        <v>2503</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>2435</v>
+        <v>2489</v>
       </c>
       <c r="T25" s="32" t="s">
-        <v>2466</v>
+        <v>2457</v>
       </c>
       <c r="U25" s="19" t="s">
         <v>507</v>
@@ -76649,8 +76646,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -77743,10 +77740,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>2493</v>
+        <v>2467</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
       <c r="F25" s="20">
         <v>1</v>
@@ -77761,16 +77758,16 @@
         <v>1</v>
       </c>
       <c r="Q25" s="41" t="s">
-        <v>2491</v>
+        <v>2465</v>
       </c>
       <c r="T25" s="20">
         <v>1</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>2502</v>
+        <v>2476</v>
       </c>
       <c r="V25" s="30" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -77781,10 +77778,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>2494</v>
+        <v>2468</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
       <c r="F26" s="20">
         <v>10</v>
@@ -77799,16 +77796,16 @@
         <v>1</v>
       </c>
       <c r="Q26" s="41" t="s">
-        <v>2501</v>
+        <v>2475</v>
       </c>
       <c r="T26" s="20">
         <v>10</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>2503</v>
+        <v>2477</v>
       </c>
       <c r="V26" s="30" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -77819,10 +77816,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>2495</v>
+        <v>2469</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
       <c r="F27" s="20">
         <v>50</v>
@@ -77837,16 +77834,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="41" t="s">
-        <v>2500</v>
+        <v>2474</v>
       </c>
       <c r="T27" s="20">
         <v>50</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>2504</v>
+        <v>2478</v>
       </c>
       <c r="V27" s="30" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -77857,10 +77854,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>2496</v>
+        <v>2470</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
       <c r="F28" s="20">
         <v>60</v>
@@ -77875,16 +77872,16 @@
         <v>1</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>2498</v>
+        <v>2472</v>
       </c>
       <c r="T28" s="20">
         <v>60</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>2505</v>
+        <v>2479</v>
       </c>
       <c r="V28" s="30" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -77895,10 +77892,10 @@
         <v>35</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>2497</v>
+        <v>2471</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
       <c r="F29" s="20">
         <v>100</v>
@@ -77913,16 +77910,16 @@
         <v>1</v>
       </c>
       <c r="Q29" s="41" t="s">
-        <v>2499</v>
+        <v>2473</v>
       </c>
       <c r="T29" s="20">
         <v>100</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>2506</v>
+        <v>2480</v>
       </c>
       <c r="V29" s="30" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/shoping_config_vivo.xlsx
+++ b/config_hlw/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="2518">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9948,6 +9948,42 @@
   </si>
   <si>
     <t>6600金币</t>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+  </si>
+  <si>
+    <t>"核能风暴",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
   </si>
 </sst>
 </file>
@@ -10626,7 +10662,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -12768,13 +12804,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM920"/>
+  <dimension ref="A1:AM925"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H896" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G913" sqref="G913"/>
+      <selection pane="bottomRight" activeCell="B922" sqref="B922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -73089,6 +73125,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="921" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="9">
+        <v>920</v>
+      </c>
+      <c r="B921" s="51">
+        <v>10846</v>
+      </c>
+      <c r="F921" s="54">
+        <v>1</v>
+      </c>
+      <c r="G921" s="54" t="s">
+        <v>2473</v>
+      </c>
+      <c r="I921" s="54" t="s">
+        <v>2506</v>
+      </c>
+      <c r="K921" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L921" s="54">
+        <v>0</v>
+      </c>
+      <c r="M921" s="54">
+        <v>0</v>
+      </c>
+      <c r="N921" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O921" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P921" s="54" t="s">
+        <v>2507</v>
+      </c>
+      <c r="Q921" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="V921" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="W921" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X921" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y921" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH921" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI921" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="9">
+        <v>921</v>
+      </c>
+      <c r="B922" s="51">
+        <v>10847</v>
+      </c>
+      <c r="F922" s="54">
+        <v>1</v>
+      </c>
+      <c r="G922" s="54" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I922" s="54" t="s">
+        <v>2509</v>
+      </c>
+      <c r="K922" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L922" s="54">
+        <v>0</v>
+      </c>
+      <c r="M922" s="54">
+        <v>0</v>
+      </c>
+      <c r="N922" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O922" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P922" s="54" t="s">
+        <v>2510</v>
+      </c>
+      <c r="Q922" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="V922" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="W922" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X922" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y922" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH922" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI922" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="9">
+        <v>922</v>
+      </c>
+      <c r="B923" s="51">
+        <v>10848</v>
+      </c>
+      <c r="F923" s="54">
+        <v>1</v>
+      </c>
+      <c r="G923" s="54" t="s">
+        <v>2474</v>
+      </c>
+      <c r="I923" s="54" t="s">
+        <v>2511</v>
+      </c>
+      <c r="K923" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L923" s="54">
+        <v>0</v>
+      </c>
+      <c r="M923" s="54">
+        <v>0</v>
+      </c>
+      <c r="N923" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O923" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P923" s="54" t="s">
+        <v>2512</v>
+      </c>
+      <c r="Q923" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="V923" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="W923" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X923" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y923" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH923" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI923" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="9">
+        <v>923</v>
+      </c>
+      <c r="B924" s="51">
+        <v>10849</v>
+      </c>
+      <c r="F924" s="54">
+        <v>1</v>
+      </c>
+      <c r="G924" s="54" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I924" s="54" t="s">
+        <v>2513</v>
+      </c>
+      <c r="K924" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L924" s="54">
+        <v>0</v>
+      </c>
+      <c r="M924" s="54">
+        <v>0</v>
+      </c>
+      <c r="N924" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O924" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P924" s="54" t="s">
+        <v>2514</v>
+      </c>
+      <c r="Q924" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="V924" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="W924" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X924" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y924" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH924" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI924" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="9">
+        <v>924</v>
+      </c>
+      <c r="B925" s="51">
+        <v>10850</v>
+      </c>
+      <c r="F925" s="54">
+        <v>1</v>
+      </c>
+      <c r="G925" s="54" t="s">
+        <v>2515</v>
+      </c>
+      <c r="I925" s="54" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K925" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L925" s="54">
+        <v>0</v>
+      </c>
+      <c r="M925" s="54">
+        <v>0</v>
+      </c>
+      <c r="N925" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O925" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P925" s="54" t="s">
+        <v>2517</v>
+      </c>
+      <c r="Q925" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="V925" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="W925" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X925" s="54">
+        <v>1585609200</v>
+      </c>
+      <c r="Y925" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AH925" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI925" s="54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM614"/>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_hlw/shoping_config_vivo.xlsx
+++ b/config_hlw/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7081" uniqueCount="2518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="2521">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9984,6 +9984,15 @@
   </si>
   <si>
     <t>"gun_barrel_3",</t>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+  </si>
+  <si>
+    <t>金焰</t>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
   </si>
 </sst>
 </file>
@@ -10207,7 +10216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10380,6 +10389,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12806,7 +12821,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AM925"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H896" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -76960,10 +76975,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78238,6 +78253,54 @@
         <v>2466</v>
       </c>
     </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="58">
+        <v>36</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="59" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="27">
+        <v>30000</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2592000</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27">
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>2519</v>
+      </c>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27">
+        <v>300000</v>
+      </c>
+      <c r="U30" s="59" t="s">
+        <v>2520</v>
+      </c>
+      <c r="V30" s="59" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
